--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443109.9222796</v>
+        <v>-443546.2379540468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996871</v>
+        <v>218615.8834996858</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>252.3119120861372</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>33.30635629927418</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -738,7 +738,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -750,10 +750,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>28.85084896271663</v>
+        <v>5.08817326300875</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>22.60550845803633</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>90.87914143716711</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>51.51961117670331</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>68.43931027778598</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.62454142837361</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1032,16 +1032,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>58.06210076379044</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>57.03803642596225</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>308.7365876015368</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1193,13 +1193,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>312.2762649769356</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1221,7 +1221,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>47.6764496557373</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>186.9923164203357</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.79589417666581</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>194.5299136996427</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>231.3706843445383</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>79.19456938825898</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>93.46222820091661</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.989177729845062</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250307</v>
+        <v>89.82535758250306</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>56.01264685106116</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673262</v>
+        <v>56.1321061567326</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
         <v>138.952706237445</v>
@@ -1591,10 +1591,10 @@
         <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>59.90687886351897</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>119.074288346184</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
         <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825898</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091661</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>82.38704960188332</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1695,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250306</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548193</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126138</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>31.49105293927796</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348595</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
@@ -1825,10 +1825,10 @@
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>186.9303327194137</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133546</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612606</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189423</v>
+        <v>249.4533522189422</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634703</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F26" t="n">
-        <v>281.348609921353</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970854</v>
+        <v>200.8319927970853</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171357</v>
+        <v>42.42795794171343</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.6956167543712</v>
+        <v>56.69561675437106</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472056</v>
+        <v>93.45428794472042</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615675</v>
+        <v>123.6754140615674</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014397</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793966</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121432</v>
+        <v>249.5487702121431</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.945368008342</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133617</v>
+        <v>53.13297117133622</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595765</v>
+        <v>53.05874613595751</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135813</v>
+        <v>39.25874098135799</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893652</v>
+        <v>22.88010537893638</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471597</v>
+        <v>21.82785523471583</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290228</v>
+        <v>22.29477956290214</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228425011</v>
+        <v>38.56948228424997</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694053</v>
+        <v>29.11784990694039</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176988</v>
+        <v>14.09994509176974</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018719</v>
+        <v>19.36549471018705</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877094</v>
+        <v>82.91159610877079</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908996</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542126</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355832</v>
+        <v>129.4668825355831</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061965</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019996</v>
+        <v>100.2788706019995</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.1537383580673</v>
+        <v>91.15373835806716</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612606</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189423</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634703</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333758</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F29" t="n">
-        <v>281.348609921353</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187755</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970854</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171357</v>
+        <v>42.42795794171337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.6956167543712</v>
+        <v>56.695616754371</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472056</v>
+        <v>93.45428794472036</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615675</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014397</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793966</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121432</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.945368008342</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326552</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133617</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595765</v>
+        <v>53.05874613595745</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135813</v>
+        <v>39.25874098135793</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893652</v>
+        <v>22.88010537893632</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471597</v>
+        <v>21.82785523471577</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290228</v>
+        <v>22.29477956290208</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228425011</v>
+        <v>38.56948228424991</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694053</v>
+        <v>29.11784990694034</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176988</v>
+        <v>14.09994509176968</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018719</v>
+        <v>19.36549471018699</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877094</v>
+        <v>82.91159610877074</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908996</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542127</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355832</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061965</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019996</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.1537383580673</v>
+        <v>91.1537383580671</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
-        <v>241.3384925937707</v>
+        <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382987</v>
+        <v>232.3197966382988</v>
       </c>
       <c r="E32" t="n">
-        <v>254.0619342082042</v>
+        <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961814</v>
+        <v>273.2337502961815</v>
       </c>
       <c r="G32" t="n">
-        <v>275.1670181936039</v>
+        <v>275.167018193604</v>
       </c>
       <c r="H32" t="n">
-        <v>192.7171331719138</v>
+        <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654195</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919958</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.33942831954894</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
-        <v>115.5605544363959</v>
+        <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762681</v>
+        <v>196.8335528762682</v>
       </c>
       <c r="W32" t="n">
-        <v>222.133652354225</v>
+        <v>222.1336523542251</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869716</v>
+        <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133622</v>
+        <v>53.1329711713362</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078603</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618651</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.7652457537649</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954435</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773066</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.4546226590785</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176892</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598264</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501557</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359932</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572796</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
-        <v>147.5424086290411</v>
+        <v>147.5424086290412</v>
       </c>
       <c r="V34" t="n">
-        <v>121.3520229104116</v>
+        <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5189089810249</v>
+        <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.164010976828</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289568</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3357,13 +3357,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
         <v>133.3468600696244</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
-        <v>224.7087975524972</v>
+        <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
         <v>243.8806136404744</v>
@@ -3755,10 +3755,10 @@
         <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
-        <v>163.3639965162068</v>
+        <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660834978</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349261</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384197</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068893</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
         <v>167.4804162205611</v>
@@ -3828,10 +3828,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G42" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507905</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479536</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371519</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44359982789234</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002098</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
-        <v>118.1892719733341</v>
+        <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.99888625470464</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
         <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.81087432112102</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718871</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349269</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133502</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1242.594165077715</v>
+        <v>686.4200856446398</v>
       </c>
       <c r="C2" t="n">
-        <v>1242.594165077715</v>
+        <v>304.4863269774472</v>
       </c>
       <c r="D2" t="n">
-        <v>869.7702003049387</v>
+        <v>304.4863269774472</v>
       </c>
       <c r="E2" t="n">
-        <v>869.7702003049387</v>
+        <v>304.4863269774472</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6190096151091</v>
+        <v>294.3755403280215</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5135673421027</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6539393868855</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086261</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>969.8260601617139</v>
+        <v>969.8260601617167</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.15741884943</v>
+        <v>1348.157418849432</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322264</v>
+        <v>1653.162003322266</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778317</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464854</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464854</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464854</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.751153464854</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="U2" t="n">
-        <v>1942.108369324173</v>
+        <v>1442.998555305058</v>
       </c>
       <c r="V2" t="n">
-        <v>1605.129095220114</v>
+        <v>1442.998555305058</v>
       </c>
       <c r="W2" t="n">
-        <v>1242.594165077715</v>
+        <v>1080.463625162659</v>
       </c>
       <c r="X2" t="n">
-        <v>1242.594165077715</v>
+        <v>1080.463625162659</v>
       </c>
       <c r="Y2" t="n">
-        <v>1242.594165077715</v>
+        <v>1080.463625162659</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.2177397518512</v>
+        <v>726.8565672372208</v>
       </c>
       <c r="C3" t="n">
-        <v>489.2177397518512</v>
+        <v>565.1528944781755</v>
       </c>
       <c r="D3" t="n">
-        <v>350.3791027420633</v>
+        <v>426.3142574683876</v>
       </c>
       <c r="E3" t="n">
-        <v>203.3510927989345</v>
+        <v>279.2862475252588</v>
       </c>
       <c r="F3" t="n">
-        <v>68.65729474880882</v>
+        <v>144.5924494751332</v>
       </c>
       <c r="G3" t="n">
-        <v>39.51502306929708</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240322</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K3" t="n">
-        <v>329.2597221625919</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="L3" t="n">
-        <v>695.0815673327074</v>
+        <v>465.5910147725189</v>
       </c>
       <c r="M3" t="n">
-        <v>695.0815673327074</v>
+        <v>950.6243682827453</v>
       </c>
       <c r="N3" t="n">
-        <v>1184.079977815259</v>
+        <v>1123.683653619414</v>
       </c>
       <c r="O3" t="n">
-        <v>1576.279928599409</v>
+        <v>1515.883604403565</v>
       </c>
       <c r="P3" t="n">
-        <v>1878.375847875107</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464854</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.9668845598</v>
+        <v>1915.966884559802</v>
       </c>
       <c r="S3" t="n">
-        <v>1915.9668845598</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T3" t="n">
-        <v>1727.281780725785</v>
+        <v>1574.482293738528</v>
       </c>
       <c r="U3" t="n">
-        <v>1508.786988324095</v>
+        <v>1355.987501336838</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.391365772429</v>
+        <v>1127.591878785172</v>
       </c>
       <c r="W3" t="n">
-        <v>1039.075497005739</v>
+        <v>886.2760100184818</v>
       </c>
       <c r="X3" t="n">
-        <v>841.1585088835333</v>
+        <v>886.2760100184818</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6371825331121</v>
+        <v>886.2760100184818</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="C4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929708</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K4" t="n">
-        <v>73.1192108139405</v>
+        <v>73.11921081394054</v>
       </c>
       <c r="L4" t="n">
         <v>173.7262902142</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418017</v>
+        <v>291.7197963418018</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914021</v>
+        <v>410.1421380914022</v>
       </c>
       <c r="O4" t="n">
         <v>508.6057845870918</v>
@@ -4507,31 +4507,31 @@
         <v>571.5742683152296</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>548.7404213879202</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>548.7404213879202</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>548.7404213879202</v>
       </c>
       <c r="T4" t="n">
-        <v>479.7771557524345</v>
+        <v>548.7404213879202</v>
       </c>
       <c r="U4" t="n">
-        <v>192.5869162415344</v>
+        <v>261.5501818770201</v>
       </c>
       <c r="V4" t="n">
-        <v>192.5869162415344</v>
+        <v>261.5501818770201</v>
       </c>
       <c r="W4" t="n">
-        <v>192.5869162415344</v>
+        <v>261.5501818770201</v>
       </c>
       <c r="X4" t="n">
-        <v>192.5869162415344</v>
+        <v>261.5501818770201</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929713</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1033.332714949632</v>
+        <v>921.810211594538</v>
       </c>
       <c r="C5" t="n">
-        <v>1033.332714949632</v>
+        <v>921.810211594538</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.332714949632</v>
+        <v>921.810211594538</v>
       </c>
       <c r="E5" t="n">
-        <v>638.5469950557386</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4362084063131</v>
+        <v>455.6190096151091</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5135673421027</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6539393868855</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L5" t="n">
-        <v>576.5868939086261</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M5" t="n">
-        <v>969.8260601617139</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.15741884943</v>
+        <v>1348.157418849432</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322263</v>
+        <v>1653.162003322266</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778317</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464854</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464854</v>
+        <v>1885.11286696071</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464854</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="T5" t="n">
-        <v>1751.392207195865</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="U5" t="n">
-        <v>1496.506870909859</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="V5" t="n">
-        <v>1496.506870909859</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="W5" t="n">
-        <v>1496.506870909859</v>
+        <v>1697.883891591064</v>
       </c>
       <c r="X5" t="n">
-        <v>1427.376254467651</v>
+        <v>1315.853751112557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1427.376254467651</v>
+        <v>1315.853751112557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.124110812296</v>
+        <v>711.6068612516142</v>
       </c>
       <c r="C6" t="n">
-        <v>757.124110812296</v>
+        <v>549.9031884925689</v>
       </c>
       <c r="D6" t="n">
-        <v>618.285473802508</v>
+        <v>549.9031884925689</v>
       </c>
       <c r="E6" t="n">
-        <v>471.2574638593792</v>
+        <v>402.8751785494402</v>
       </c>
       <c r="F6" t="n">
-        <v>336.5636658092535</v>
+        <v>268.1813804993145</v>
       </c>
       <c r="G6" t="n">
-        <v>207.8351658325381</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792361</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240322</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K6" t="n">
-        <v>329.2597221625919</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>329.2597221625919</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>814.2930756728183</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N6" t="n">
-        <v>1303.29148615537</v>
+        <v>1515.883604403565</v>
       </c>
       <c r="O6" t="n">
-        <v>1695.49143693952</v>
+        <v>1515.883604403565</v>
       </c>
       <c r="P6" t="n">
-        <v>1975.751153464854</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464854</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1975.751153464854</v>
+        <v>1915.966884559802</v>
       </c>
       <c r="S6" t="n">
-        <v>1822.951666477594</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1634.266562643579</v>
+        <v>1574.482293738528</v>
       </c>
       <c r="U6" t="n">
-        <v>1415.771770241889</v>
+        <v>1355.987501336838</v>
       </c>
       <c r="V6" t="n">
-        <v>1415.771770241889</v>
+        <v>1127.591878785172</v>
       </c>
       <c r="W6" t="n">
-        <v>1174.455901475199</v>
+        <v>1068.94329215508</v>
       </c>
       <c r="X6" t="n">
-        <v>976.5389133529935</v>
+        <v>871.026304032875</v>
       </c>
       <c r="Y6" t="n">
-        <v>784.0175870025723</v>
+        <v>871.026304032875</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="C7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="D7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929707</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394048</v>
+        <v>73.11921081394054</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142</v>
       </c>
       <c r="M7" t="n">
-        <v>291.7197963418017</v>
+        <v>291.7197963418018</v>
       </c>
       <c r="N7" t="n">
-        <v>410.1421380914021</v>
+        <v>410.1421380914022</v>
       </c>
       <c r="O7" t="n">
         <v>508.6057845870918</v>
@@ -4750,25 +4750,25 @@
         <v>571.5742683152296</v>
       </c>
       <c r="S7" t="n">
-        <v>357.8645057189171</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>357.8645057189171</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="U7" t="n">
-        <v>357.8645057189171</v>
+        <v>300.2503275108745</v>
       </c>
       <c r="V7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="W7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="X7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.12920127733975</v>
+        <v>39.51502306929713</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.6228183438207</v>
+        <v>1291.565103973249</v>
       </c>
       <c r="C8" t="n">
-        <v>964.6228183438207</v>
+        <v>909.6313453060566</v>
       </c>
       <c r="D8" t="n">
-        <v>964.6228183438207</v>
+        <v>536.8073805332801</v>
       </c>
       <c r="E8" t="n">
-        <v>569.8370984499275</v>
+        <v>536.8073805332801</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>526.6965938838546</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4841,13 +4841,13 @@
         <v>1673.595244451756</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.164673767983</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="X8" t="n">
-        <v>1358.164673767983</v>
+        <v>1291.565103973249</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.6228183438207</v>
+        <v>1291.565103973249</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,22 +4884,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4920,13 +4920,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1204.895500424986</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1204.895500424986</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>1012.374174074565</v>
+        <v>624.9395457940723</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.0332703398804</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="C10" t="n">
-        <v>194.0332703398804</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0332703398804</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>91.31303809783137</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4996,16 +4996,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W10" t="n">
-        <v>377.5886390242603</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X10" t="n">
-        <v>377.5886390242603</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y10" t="n">
-        <v>377.5886390242603</v>
+        <v>91.31303809783137</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1600.486869626152</v>
+        <v>1565.45047189</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.375795216568</v>
+        <v>1276.339397480417</v>
       </c>
       <c r="D11" t="n">
-        <v>1077.668033252388</v>
+        <v>996.3381169652494</v>
       </c>
       <c r="E11" t="n">
-        <v>775.7049976161043</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3764911838837</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="G11" t="n">
-        <v>131.0951888956807</v>
+        <v>371.0937790407623</v>
       </c>
       <c r="H11" t="n">
         <v>131.0951888956807</v>
@@ -5039,10 +5039,10 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>545.1906163614394</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L11" t="n">
         <v>893.0759894463856</v>
@@ -5051,13 +5051,13 @@
         <v>1367.157599119382</v>
       </c>
       <c r="N11" t="n">
-        <v>1745.488957807098</v>
+        <v>1836.46447064798</v>
       </c>
       <c r="O11" t="n">
-        <v>2050.493542279932</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P11" t="n">
-        <v>2369.625951576867</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q11" t="n">
         <v>2555.033718104287</v>
@@ -5075,16 +5075,16 @@
         <v>2460.62742699225</v>
       </c>
       <c r="V11" t="n">
-        <v>2460.62742699225</v>
+        <v>2456.597954537861</v>
       </c>
       <c r="W11" t="n">
-        <v>2190.91518110746</v>
+        <v>2456.597954537861</v>
       </c>
       <c r="X11" t="n">
-        <v>1901.707724886562</v>
+        <v>2167.390498316963</v>
       </c>
       <c r="Y11" t="n">
-        <v>1901.707724886562</v>
+        <v>1866.67132715041</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
         <v>482.8431151521678</v>
@@ -5124,7 +5124,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370.9295313998436</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="C13" t="n">
-        <v>294.1362461191329</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D13" t="n">
-        <v>233.8870372045048</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E13" t="n">
-        <v>177.3086060418167</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H13" t="n">
         <v>51.10067436208574</v>
@@ -5197,19 +5197,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499917</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505253</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916674</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601517</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506347</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.632377415578</v>
+        <v>1036.745299076875</v>
       </c>
       <c r="T13" t="n">
-        <v>1017.276108488866</v>
+        <v>896.3890301501624</v>
       </c>
       <c r="U13" t="n">
-        <v>822.9085532355746</v>
+        <v>702.0214748968713</v>
       </c>
       <c r="V13" t="n">
-        <v>654.9959330516062</v>
+        <v>534.1088547129029</v>
       </c>
       <c r="W13" t="n">
-        <v>461.6622158266144</v>
+        <v>340.7751374879111</v>
       </c>
       <c r="X13" t="n">
-        <v>461.6622158266144</v>
+        <v>202.3453576408958</v>
       </c>
       <c r="Y13" t="n">
-        <v>461.6622158266144</v>
+        <v>141.8333587888565</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1437.94368233301</v>
+        <v>1205.454676841238</v>
       </c>
       <c r="C14" t="n">
-        <v>1437.94368233301</v>
+        <v>916.3436024316546</v>
       </c>
       <c r="D14" t="n">
-        <v>1317.66662339747</v>
+        <v>916.3436024316546</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.703587761186</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3750813289653</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407623</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
-        <v>214.074731475774</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>454.2151035205568</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L14" t="n">
-        <v>802.100476605503</v>
+        <v>791.9674071845291</v>
       </c>
       <c r="M14" t="n">
-        <v>1195.339642858591</v>
+        <v>1276.1820862785</v>
       </c>
       <c r="N14" t="n">
-        <v>1652.372516728047</v>
+        <v>1654.513444966215</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.352614041763</v>
+        <v>2050.493542279932</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.485023338699</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2329.09116498087</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U14" t="n">
-        <v>2329.09116498087</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="V14" t="n">
-        <v>2329.09116498087</v>
+        <v>2148.814476229441</v>
       </c>
       <c r="W14" t="n">
-        <v>2329.09116498087</v>
+        <v>1879.10223034465</v>
       </c>
       <c r="X14" t="n">
-        <v>2039.883708759973</v>
+        <v>1589.894774123753</v>
       </c>
       <c r="Y14" t="n">
-        <v>1739.16453759342</v>
+        <v>1506.675532101649</v>
       </c>
     </row>
     <row r="15">
@@ -5343,10 +5343,10 @@
         <v>468.1304976920634</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
         <v>119.4829596720247</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>313.1832385954442</v>
+        <v>202.3453576408951</v>
       </c>
       <c r="C16" t="n">
-        <v>313.1832385954442</v>
+        <v>202.3453576408951</v>
       </c>
       <c r="D16" t="n">
-        <v>252.9340296808159</v>
+        <v>142.0961487262668</v>
       </c>
       <c r="E16" t="n">
-        <v>193.7476996997438</v>
+        <v>82.90981874519478</v>
       </c>
       <c r="F16" t="n">
-        <v>193.7476996997438</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H16" t="n">
         <v>51.10067436208573</v>
@@ -5434,19 +5434,19 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499901</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506344</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5455,31 +5455,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1214.331474543591</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="S16" t="n">
-        <v>1093.444396204887</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>1093.444396204887</v>
+        <v>896.3890301501617</v>
       </c>
       <c r="U16" t="n">
-        <v>899.0768409515962</v>
+        <v>702.0214748968706</v>
       </c>
       <c r="V16" t="n">
-        <v>731.1642207676279</v>
+        <v>534.1088547129023</v>
       </c>
       <c r="W16" t="n">
-        <v>542.3457028692301</v>
+        <v>340.7751374879103</v>
       </c>
       <c r="X16" t="n">
-        <v>403.9159230222149</v>
+        <v>202.3453576408951</v>
       </c>
       <c r="Y16" t="n">
-        <v>403.9159230222149</v>
+        <v>202.3453576408951</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0485364810481</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L17" t="n">
-        <v>991.4016840570267</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M17" t="n">
-        <v>1549.108624801147</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N17" t="n">
-        <v>1927.439983488863</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O17" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q17" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I18" t="n">
         <v>51.10067436208574</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
         <v>52.21328648670347</v>
@@ -5674,49 +5674,49 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478544</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614935</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>238.9081644362655</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810483</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659946</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.173075819082</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.97220899783</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470664</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C21" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D21" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E21" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F21" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G21" t="n">
         <v>219.4208171253267</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W21" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X21" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y21" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="22">
@@ -5896,40 +5896,40 @@
         <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
-        <v>66.12215891288227</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G22" t="n">
-        <v>65.00954678826454</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H22" t="n">
-        <v>65.00954678826454</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>88.14391746548213</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J22" t="n">
-        <v>88.14391746548213</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K22" t="n">
-        <v>121.7481052101255</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L22" t="n">
-        <v>222.355184610385</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M22" t="n">
-        <v>340.3486907379868</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N22" t="n">
-        <v>458.7710324875871</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O22" t="n">
-        <v>557.2346789832768</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P22" t="n">
-        <v>620.2031627114146</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q22" t="n">
-        <v>620.2031627114146</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R22" t="n">
         <v>628.266068145054</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478536</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614927</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791953</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409155</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N23" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O23" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P23" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215968</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S23" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040245</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449792</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351913</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920625</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419369</v>
       </c>
       <c r="G24" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652215</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119195</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
-        <v>1191.700572135723</v>
+        <v>1191.700572135722</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.966218258845</v>
+        <v>1702.966218258844</v>
       </c>
       <c r="O24" t="n">
-        <v>2095.166169042996</v>
+        <v>2095.166169042995</v>
       </c>
       <c r="P24" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R24" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T24" t="n">
         <v>2153.764858377958</v>
@@ -6108,10 +6108,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1075.120260185285</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044545</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D26" t="n">
         <v>1143.562317889524</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133871</v>
+        <v>878.7372736133869</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413132</v>
+        <v>594.5467585413134</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132572</v>
+        <v>308.4034476132574</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283225</v>
+        <v>105.5428488283223</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006426</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183881</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L26" t="n">
         <v>1104.833989576297</v>
@@ -6236,40 +6236,40 @@
         <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.153430863026</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2563.532473508822</v>
+        <v>2518.438342684954</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313973</v>
+        <v>2873.96969731397</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173472</v>
+        <v>3095.776409173469</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.04798299183</v>
+        <v>3077.047982991829</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340596</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672346</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186045</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661402</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.062733800651</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994245</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>116.3559935047089</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J27" t="n">
-        <v>122.9404721879806</v>
+        <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
         <v>352.4310247481692</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042415</v>
+        <v>252.6345665042404</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836777</v>
+        <v>212.9792725836768</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291964</v>
+        <v>189.8680550291956</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082712</v>
+        <v>167.8197164082706</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518042</v>
+        <v>145.2997370518038</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374102</v>
+        <v>106.3406640374099</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443995</v>
+        <v>76.92869443443976</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898677</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="K28" t="n">
-        <v>292.1773302074737</v>
+        <v>96.29051339951778</v>
       </c>
       <c r="L28" t="n">
-        <v>520.1588677806958</v>
+        <v>324.27205097274</v>
       </c>
       <c r="M28" t="n">
-        <v>638.1523739082975</v>
+        <v>442.2655571003417</v>
       </c>
       <c r="N28" t="n">
-        <v>883.9491738308604</v>
+        <v>644.5388636533</v>
       </c>
       <c r="O28" t="n">
-        <v>982.4128203265501</v>
+        <v>870.3769683219524</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223056</v>
+        <v>1060.719910223053</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142499</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374633</v>
+        <v>1130.762814374631</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396076</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295112</v>
+        <v>943.7954498295093</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363671</v>
+        <v>786.5658859363652</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125456</v>
+        <v>655.7912571125439</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312477007</v>
+        <v>499.5955312476992</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608324</v>
+        <v>398.303742760831</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708654</v>
+        <v>306.2292595708642</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093982</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044545</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133873</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413135</v>
+        <v>594.5467585413122</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132563</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283225</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006426</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183881</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.739858752431</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178482</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.05930003916</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684957</v>
+        <v>2563.532473508823</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313973</v>
+        <v>2873.969697313969</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173472</v>
+        <v>3095.776409173469</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.04798299183</v>
+        <v>3077.047982991828</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340596</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672346</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186045</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661402</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800651</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994245</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>216.2938509580109</v>
       </c>
       <c r="H30" t="n">
-        <v>116.3559935047089</v>
+        <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9404721879806</v>
+        <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
         <v>352.4310247481692</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042415</v>
+        <v>252.63456650424</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836777</v>
+        <v>212.9792725836765</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291964</v>
+        <v>189.8680550291953</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082712</v>
+        <v>167.8197164082703</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518042</v>
+        <v>145.2997370518036</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374102</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443995</v>
+        <v>76.92869443443971</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J31" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="K31" t="n">
-        <v>223.6649715724804</v>
+        <v>223.6649715724806</v>
       </c>
       <c r="L31" t="n">
-        <v>324.2720509727399</v>
+        <v>324.2720509727401</v>
       </c>
       <c r="M31" t="n">
-        <v>526.1165219037026</v>
+        <v>569.6400152733046</v>
       </c>
       <c r="N31" t="n">
-        <v>644.538863653303</v>
+        <v>771.9133218262619</v>
       </c>
       <c r="O31" t="n">
-        <v>870.3769683219552</v>
+        <v>997.7514264949144</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223056</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142499</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374633</v>
+        <v>1130.76281437463</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396076</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295112</v>
+        <v>943.7954498295086</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363671</v>
+        <v>786.5658859363646</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125456</v>
+        <v>655.7912571125433</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312477007</v>
+        <v>499.5955312476986</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608324</v>
+        <v>398.3037427608305</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708654</v>
+        <v>306.2292595708637</v>
       </c>
     </row>
     <row r="32">
@@ -6683,67 +6683,67 @@
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646307</v>
+        <v>843.4407289646304</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967707</v>
+        <v>567.4470417967702</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729283</v>
+        <v>289.5005587729278</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220656</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>162.6420266521922</v>
+        <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>538.1905678988574</v>
+        <v>643.1323473443254</v>
       </c>
       <c r="L32" t="n">
-        <v>886.0759409838037</v>
+        <v>1068.057694784856</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.723276438774</v>
+        <v>1596.705030239827</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328372</v>
+        <v>2110.444558129425</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2415.449142602259</v>
       </c>
       <c r="P32" t="n">
-        <v>2732.440623661024</v>
+        <v>2779.014208260194</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549444</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300936</v>
+        <v>2959.783159300937</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553917</v>
+        <v>2873.581716553918</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.853883789882</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587362</v>
+        <v>2333.654686587363</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630825</v>
+        <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728633</v>
+        <v>1834.397697728634</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>113.8467604728068</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.747538142843</v>
+        <v>192.7475381428439</v>
       </c>
       <c r="C34" t="n">
-        <v>161.289072126493</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762255</v>
+        <v>146.3746824762261</v>
       </c>
       <c r="E34" t="n">
-        <v>132.523171759514</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.2000203072608</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708051</v>
+        <v>87.43777519708077</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832403</v>
+        <v>66.22263349832417</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="K34" t="n">
-        <v>93.78128036761566</v>
+        <v>229.189449569498</v>
       </c>
       <c r="L34" t="n">
-        <v>329.7965289697577</v>
+        <v>329.7965289697576</v>
       </c>
       <c r="M34" t="n">
-        <v>447.7900350973594</v>
+        <v>447.7900350973593</v>
       </c>
       <c r="N34" t="n">
-        <v>622.1874202691035</v>
+        <v>622.1874202691057</v>
       </c>
       <c r="O34" t="n">
-        <v>856.0592359666757</v>
+        <v>720.6510667647954</v>
       </c>
       <c r="P34" t="n">
-        <v>919.0277196948135</v>
+        <v>919.0277196948155</v>
       </c>
       <c r="Q34" t="n">
-        <v>1016.665440643177</v>
+        <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779525</v>
+        <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051819</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428303</v>
+        <v>834.7274540428319</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180538999</v>
+        <v>685.6947180539014</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342922</v>
+        <v>563.1169171342935</v>
       </c>
       <c r="W34" t="n">
-        <v>415.118019173661</v>
+        <v>415.1180191736622</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910064</v>
+        <v>322.0230585910075</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052532</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0485364810477</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>826.933909565994</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1384.640850310114</v>
+        <v>1384.640850310116</v>
       </c>
       <c r="N35" t="n">
-        <v>1762.97220899783</v>
+        <v>1927.439983488864</v>
       </c>
       <c r="O35" t="n">
-        <v>2067.976793470664</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2296.133689926717</v>
+        <v>2460.601464417751</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -7005,19 +7005,19 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478538</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614929</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575744</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362654</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810482</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556528</v>
+        <v>826.9339095659944</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N38" t="n">
-        <v>1927.439983488862</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961696</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.611879242172</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7236,19 +7236,19 @@
         <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287316</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
         <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
         <v>84.70486210672914</v>
@@ -7345,7 +7345,7 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
         <v>628.266068145054</v>
@@ -7391,58 +7391,58 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478537</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614928</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
-        <v>469.4217245791954</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G41" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575741</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470663</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.601464417749</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T41" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U41" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V41" t="n">
         <v>2222.809732105717</v>
@@ -7451,10 +7451,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7476,7 +7476,7 @@
         <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749083</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670342</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670342</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670342</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670342</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208572</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208572</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208572</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O43" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696715</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696715</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696715</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808913</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041025</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007346</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666895</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916209</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.998373994529</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433836</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409157</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575744</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M44" t="n">
-        <v>1144.539885930763</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N44" t="n">
-        <v>1522.871244618479</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
-        <v>1992.343603582345</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529431</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215968</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040241</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449788</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351909</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920621</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419365</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
-        <v>204.708199665221</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119191</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254954</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
-        <v>1191.700572135722</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.966218258844</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O45" t="n">
-        <v>2095.166169042995</v>
+        <v>2095.166169042996</v>
       </c>
       <c r="P45" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.449962211972</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377957</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976267</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424601</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657911</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535706</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185285</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
@@ -7822,34 +7822,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W46" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>418.7652167305293</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>460.1732313556286</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8058,16 +8058,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339218</v>
+        <v>281.5224999936364</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.0940859799906</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8219,13 +8219,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>418.7652167305293</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>444.3566395505257</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8298,22 +8298,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339217</v>
+        <v>445.8754274925878</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>391.9448287770052</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8532,16 +8532,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N9" t="n">
-        <v>405.7168621786896</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944961</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>45.83058336547742</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>237.72584621814</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790354</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548193</v>
       </c>
       <c r="E13" t="n">
-        <v>2.581819830200175</v>
+        <v>58.59446668126138</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944769</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079554</v>
+        <v>75.33609373079553</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348595</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831531</v>
+        <v>50.86655653831529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046127</v>
+        <v>68.01347094109374</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>158.1269793638317</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>215.3249298530041</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790354</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944769</v>
+        <v>27.57033807016975</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831529</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.1321061567326</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>4.470047333328267</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046127</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>966665.1992272037</v>
+        <v>966665.1992272036</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>966665.1992272037</v>
+        <v>966665.1992272036</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>230287.2181482545</v>
       </c>
       <c r="C2" t="n">
+        <v>230287.2181482545</v>
+      </c>
+      <c r="D2" t="n">
+        <v>230287.2181482545</v>
+      </c>
+      <c r="E2" t="n">
+        <v>199999.6963918349</v>
+      </c>
+      <c r="F2" t="n">
+        <v>199999.696391835</v>
+      </c>
+      <c r="G2" t="n">
+        <v>230287.2181482545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>230287.2181482544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>230287.2181482544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>230287.2181482547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>230287.2181482547</v>
+      </c>
+      <c r="L2" t="n">
         <v>230287.2181482546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>230287.2181482544</v>
-      </c>
-      <c r="E2" t="n">
-        <v>199999.696391835</v>
-      </c>
-      <c r="F2" t="n">
-        <v>199999.6963918349</v>
-      </c>
-      <c r="G2" t="n">
-        <v>230287.2181482546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>230287.2181482545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>230287.2181482545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>230287.2181482548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>230287.2181482548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>230287.2181482545</v>
       </c>
       <c r="M2" t="n">
         <v>230287.2181482545</v>
       </c>
       <c r="N2" t="n">
+        <v>230287.2181482546</v>
+      </c>
+      <c r="O2" t="n">
         <v>230287.2181482545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>230287.2181482544</v>
       </c>
       <c r="P2" t="n">
         <v>230287.2181482544</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506506</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208747077</v>
+        <v>9743.038208746844</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422431</v>
+        <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.5738820765</v>
+        <v>65879.57388207628</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456556</v>
+        <v>23482.50932456565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732352</v>
+        <v>43541.16890732363</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603503</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603503</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
         <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26439,10 +26439,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
+        <v>176368.812935792</v>
+      </c>
+      <c r="K4" t="n">
         <v>176368.8129357921</v>
-      </c>
-      <c r="K4" t="n">
-        <v>176368.812935792</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26451,13 +26451,13 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266578</v>
+        <v>63659.01753266582</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266577</v>
+        <v>63659.01753266582</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26491,25 +26491,25 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582859</v>
+        <v>58458.01489582856</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582859</v>
+        <v>58458.01489582856</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.20592541149</v>
+        <v>57233.2059254115</v>
       </c>
       <c r="M5" t="n">
+        <v>52802.81689264638</v>
+      </c>
+      <c r="N5" t="n">
         <v>52802.81689264637</v>
       </c>
-      <c r="N5" t="n">
-        <v>52802.81689264635</v>
-      </c>
       <c r="O5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264635</v>
+        <v>52802.81689264637</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193130.7458954121</v>
+        <v>-193130.7458954122</v>
       </c>
       <c r="C6" t="n">
-        <v>-27600.83244476149</v>
+        <v>-27600.83244476146</v>
       </c>
       <c r="D6" t="n">
-        <v>-30797.61403069718</v>
+        <v>-30797.61403069695</v>
       </c>
       <c r="E6" t="n">
-        <v>-72134.81767486752</v>
+        <v>-72387.21368950448</v>
       </c>
       <c r="F6" t="n">
-        <v>35255.98340089589</v>
+        <v>35003.58738625928</v>
       </c>
       <c r="G6" t="n">
-        <v>-57526.40546656665</v>
+        <v>-57526.40546656676</v>
       </c>
       <c r="H6" t="n">
-        <v>1861.280715372501</v>
+        <v>1861.280715372384</v>
       </c>
       <c r="I6" t="n">
-        <v>1861.280715372443</v>
+        <v>1861.280715372355</v>
       </c>
       <c r="J6" t="n">
-        <v>-215208.0891256089</v>
+        <v>-215208.0891256091</v>
       </c>
       <c r="K6" t="n">
-        <v>-4539.609683365794</v>
+        <v>-4539.609683365918</v>
       </c>
       <c r="L6" t="n">
-        <v>-69026.37819063419</v>
+        <v>-69026.37819063386</v>
       </c>
       <c r="M6" t="n">
-        <v>-21621.22860919312</v>
+        <v>-21621.22860919322</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.280715372515</v>
+        <v>1861.28071537253</v>
       </c>
       <c r="O6" t="n">
-        <v>-41679.88819195111</v>
+        <v>-41679.88819195118</v>
       </c>
       <c r="P6" t="n">
-        <v>1861.280715372428</v>
+        <v>1861.28071537253</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,13 +26707,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L2" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,7 +26722,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P2" t="n">
         <v>166.1290651424569</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662135</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662134</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,28 +26808,28 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>783.5790706859295</v>
+      </c>
+      <c r="K4" t="n">
+        <v>783.5790706859295</v>
+      </c>
+      <c r="L4" t="n">
+        <v>752.2136577871534</v>
+      </c>
+      <c r="M4" t="n">
+        <v>638.758429526072</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="J4" t="n">
-        <v>783.5790706859301</v>
-      </c>
-      <c r="K4" t="n">
-        <v>783.5790706859301</v>
-      </c>
-      <c r="L4" t="n">
-        <v>752.2136577871531</v>
-      </c>
-      <c r="M4" t="n">
-        <v>638.7584295260716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260715</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260715</v>
-      </c>
       <c r="P4" t="n">
-        <v>638.7584295260715</v>
+        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415438</v>
+        <v>54.42646113415454</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259562</v>
+        <v>82.34946735259535</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570695</v>
+        <v>29.35313665570706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415441</v>
+        <v>54.42646113415454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662135</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877693</v>
+        <v>31.36541289877618</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415438</v>
+        <v>54.42646113415454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662135</v>
+        <v>493.9377883662141</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877693</v>
+        <v>31.36541289877618</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>159.6310345942167</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>219.0301266238717</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98.59036601423163</v>
+        <v>122.3530417139395</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>15.54645947481152</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>139.9680222153108</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>339.3182515182509</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27679,7 +27679,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>309.7705287959356</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.2007069250747</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>180.8406093152326</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>93.45088767033209</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27822,13 +27822,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>103.2063590788171</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>46.63331586403939</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>191.2262604232857</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>3.603796666581246</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28017,7 +28017,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>93.96511977668244</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28068,16 +28068,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>88.76492376813218</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M11" t="n">
-        <v>81.65903375748348</v>
+        <v>81.6590337574828</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503296</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J14" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>81.65903375748348</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N14" t="n">
-        <v>79.49647998155575</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503296</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="15">
@@ -28415,13 +28415,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="17">
@@ -28588,28 +28588,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>116.978733132701</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
@@ -28746,7 +28746,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28822,7 +28822,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9787331327011</v>
+        <v>40.58157162934948</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28834,19 +28834,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>166.1290651424569</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.091213439225925</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>156.1709124946336</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,31 +29059,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
+      <c r="P23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>116.9787331327013</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615784</v>
+        <v>83.11144176676106</v>
       </c>
       <c r="P26" t="n">
-        <v>83.11144176676453</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550343</v>
+        <v>14.56549128550339</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615784</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615784</v>
+        <v>84.69794424581612</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P28" t="n">
-        <v>15.49354158420985</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L29" t="n">
-        <v>83.11144176676436</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615784</v>
+        <v>83.11144176676038</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="30">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550343</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J31" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>84.69794424581917</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.69794424581515</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P31" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615784</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="C32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="D32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="E32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="F32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="G32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="H32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="I32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>30.77413106708511</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>77.81815591473202</v>
       </c>
       <c r="M32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
-        <v>136.77592848675</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
-        <v>136.77592848675</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="T32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="U32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="V32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="W32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="X32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550339</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="C34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="D34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="E34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="F34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="G34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="H34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="I34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
-        <v>136.77592848675</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>56.54044790115533</v>
+        <v>56.54044790115761</v>
       </c>
       <c r="O34" t="n">
-        <v>136.77592848675</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="S34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="T34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="U34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="V34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="W34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="X34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.77592848675</v>
+        <v>136.7759284867499</v>
       </c>
     </row>
     <row r="35">
@@ -30007,20 +30007,20 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>116.9787331327006</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>116.9787331327018</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>89.73190363910518</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30171,10 +30171,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>27.45926462833464</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,19 +30244,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
-        <v>116.9787331327</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>151.6127747272213</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30417,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="P40" t="n">
-        <v>45.56176619902594</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="C41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="D41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="H41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,43 +30490,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N41" t="n">
-        <v>116.9787331327003</v>
+        <v>40.58157162934901</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>166.129065142457</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="T41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="U41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="V41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="W41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="X41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
     </row>
     <row r="42">
@@ -30548,10 +30548,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G42" t="n">
-        <v>14.56549128550323</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="C43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,13 +30627,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30654,10 +30654,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>37.21161982508795</v>
       </c>
       <c r="P43" t="n">
-        <v>46.68561682995271</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30666,25 +30666,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="T43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="U43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="V43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="W43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="X43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.129065142457</v>
+        <v>166.1290651424569</v>
       </c>
     </row>
     <row r="44">
@@ -30718,7 +30718,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,16 +30727,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40.58157162934833</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="P44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550459</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187447</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -34702,10 +34702,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>227.2050045674147</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>273.0169168584695</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34778,16 +34778,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662135</v>
+        <v>174.8073589259281</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.35889453509807</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>227.2050045674147</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>257.9585253782956</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35018,22 +35018,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662134</v>
+        <v>339.1602864248795</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>283.0906227528619</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N9" t="n">
-        <v>299.0017211109813</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>334.4604897835004</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>478.8703128010067</v>
+        <v>478.870312801006</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>399.9798962764814</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868039</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506396</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L13" t="n">
         <v>193.5177699405476</v>
@@ -35583,10 +35583,10 @@
         <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>433.0584005099544</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N14" t="n">
-        <v>461.649367544905</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764814</v>
+        <v>399.9798962764813</v>
       </c>
       <c r="P14" t="n">
         <v>322.3559689868039</v>
@@ -35668,7 +35668,7 @@
         <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927776</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506396</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P16" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218511</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>359.5447655011685</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L17" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>80.62924081444126</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
@@ -36054,7 +36054,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
-        <v>99.45822878352493</v>
+        <v>145.0199949825509</v>
       </c>
       <c r="P19" t="n">
         <v>63.604529018321</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7045354284644</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P20" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.17321671797629</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45822878352493</v>
+        <v>103.5494422227509</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.144348922868025</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>347.4402447044723</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36443,7 +36443,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133597</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36501,7 +36501,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36531,7 +36531,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573418</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300458</v>
+        <v>371.2271012300459</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140493</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051016</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249276</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230268</v>
+        <v>391.1968806282095</v>
       </c>
       <c r="P26" t="n">
-        <v>313.5729533385355</v>
+        <v>359.1225804333494</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964642</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247319</v>
+        <v>38.92916522247333</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160938</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>162.6046928460667</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.284381387093</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M28" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2795958813767</v>
+        <v>204.3164712656145</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45822878352493</v>
+        <v>228.1192976451034</v>
       </c>
       <c r="P28" t="n">
-        <v>79.09807060253085</v>
+        <v>192.2655978798995</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873052</v>
+        <v>90.50910092873066</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573417</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300458</v>
+        <v>371.227101230046</v>
       </c>
       <c r="L29" t="n">
-        <v>434.5108085192353</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051016</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249276</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230268</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333493</v>
+        <v>313.5729533385313</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964642</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247319</v>
+        <v>38.92916522247339</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460667</v>
+        <v>162.6046928460669</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>203.8833039706694</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N31" t="n">
-        <v>119.6185270197983</v>
+        <v>204.3164712656135</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451033</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P31" t="n">
-        <v>192.2655978798994</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873052</v>
+        <v>90.50910092873072</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>103.4999333628484</v>
+        <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>429.217522667203</v>
       </c>
       <c r="M32" t="n">
-        <v>533.9872075302732</v>
+        <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>367.2374400585208</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.1620433216358</v>
+        <v>232.1620433216357</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764481</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>238.3992410122646</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>176.1589749209537</v>
+        <v>176.158974920956</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702749</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>200.3804575050709</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390214</v>
+        <v>98.62396055390202</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>359.544765501168</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>514.190012176225</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
@@ -37324,7 +37324,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>146.6446243531849</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284643</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
-        <v>499.1316206960493</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.123850630926996</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>145.0199949825509</v>
       </c>
       <c r="P40" t="n">
-        <v>109.1662952173469</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
@@ -37789,19 +37789,19 @@
         <v>563.3403441859801</v>
       </c>
       <c r="N41" t="n">
-        <v>499.1316206960495</v>
+        <v>422.7344591926982</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>396.5905767142279</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37923,13 +37923,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45822878352493</v>
+        <v>136.6698486086129</v>
       </c>
       <c r="P43" t="n">
-        <v>110.2901458482737</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,22 +38023,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>437.7928506728715</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039054</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>76.3971615033517</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233483</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.123850630927054</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>45.56176619902661</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
